--- a/templates/Import Data Karyawan Template.xlsx
+++ b/templates/Import Data Karyawan Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{710EC801-9E93-4BF2-9C04-1339048D3167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F074D9E6-5A8A-46F5-8DD0-3DFF1371BCEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9375A1B5-E699-454E-A7B5-6C88FD2AE693}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>NIK</t>
   </si>
@@ -47,16 +47,61 @@
     <t>Mobile Number</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>a@a.com</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>b@b.com</t>
+    <t>nawakaraadmin</t>
+  </si>
+  <si>
+    <t>nawakarahrd</t>
+  </si>
+  <si>
+    <t>nawakarapm</t>
+  </si>
+  <si>
+    <t>nawakaraadmin@nawakara.com</t>
+  </si>
+  <si>
+    <t>nawakarahrd@nawakara.com</t>
+  </si>
+  <si>
+    <t>nawakarapm@nawakara.com</t>
+  </si>
+  <si>
+    <t>nawakarauser1</t>
+  </si>
+  <si>
+    <t>nawakarauser1@nawakara.com</t>
+  </si>
+  <si>
+    <t>nawakarauser3@nawakara.com</t>
+  </si>
+  <si>
+    <t>nawakarauser2@nawakara.com</t>
+  </si>
+  <si>
+    <t>nawakarauser2</t>
+  </si>
+  <si>
+    <t>nawakarauser3</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>direksi</t>
+  </si>
+  <si>
+    <t>human Resource dePartment</t>
+  </si>
+  <si>
+    <t>project MANAGER</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>StaFF</t>
+  </si>
+  <si>
+    <t>STAFF</t>
   </si>
 </sst>
 </file>
@@ -419,18 +464,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D9D96E-1562-4C47-BAAA-1E1EA05CA301}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +491,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -452,31 +503,110 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>123456789</v>
       </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>999999999</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>234567891</v>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>888888888</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>111111111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>111111111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>111111111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F1DEF3A0-8959-43C4-9414-BD65672C3DA8}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{A723DB41-E4E6-412A-B422-121FC292A394}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{71E1AAE0-6B03-47BA-9255-26845E5BCCF3}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{BD9B54ED-6A6A-47DB-AE5B-129138E61B96}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{7DC9C8D6-893D-431F-9728-C91C4F5EFD6D}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{EF0B6233-09E8-4B14-B7CB-0A65E3C1A1BB}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{1A86CB1F-E9DE-4161-AB37-6B1659742034}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{C23D3123-1920-443C-BE37-5CA6F3F88729}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>